--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>SKYT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,167 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44290</v>
+      </c>
+      <c r="F7" s="2">
         <v>44199</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44101</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>44010</v>
+      </c>
+      <c r="I7" s="2">
+        <v>43919</v>
+      </c>
+      <c r="J7" s="2">
         <v>43828</v>
       </c>
-      <c r="G7" s="2">
-        <v>43737</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F8" s="3">
         <v>39800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>33000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>30800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>36900</v>
+      </c>
+      <c r="J8" s="3">
         <v>30700</v>
       </c>
-      <c r="G8" s="3">
-        <v>33200</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>38900</v>
+      </c>
+      <c r="F9" s="3">
         <v>36200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>25700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
+        <v>50600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J9" s="3">
         <v>20900</v>
       </c>
-      <c r="G9" s="3">
-        <v>32700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>7300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J10" s="3">
         <v>9800</v>
       </c>
-      <c r="G10" s="3">
-        <v>500</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,37 +837,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
         <v>1700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,37 +903,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>1400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +973,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +989,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F17" s="3">
         <v>46800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>32400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>33700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>37600</v>
+      </c>
+      <c r="J17" s="3">
         <v>29200</v>
       </c>
-      <c r="G17" s="3">
-        <v>44100</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,153 +1074,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
+        <v>900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,66 +1280,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1385,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1420,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1455,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,66 +1490,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,71 +1595,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44290</v>
+      </c>
+      <c r="F38" s="2">
         <v>44199</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44101</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>44010</v>
+      </c>
+      <c r="I38" s="2">
+        <v>43919</v>
+      </c>
+      <c r="J38" s="2">
         <v>43828</v>
       </c>
-      <c r="G38" s="2">
-        <v>43737</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1689,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,23 +1704,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F41" s="3">
         <v>7400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>18400</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,8 +1735,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1588,23 +1770,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>26700</v>
+      </c>
+      <c r="F43" s="3">
         <v>30000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>46600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,23 +1805,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F44" s="3">
         <v>27200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>23900</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,23 +1840,29 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F45" s="3">
         <v>12000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>11100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,23 +1875,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>70200</v>
+      </c>
+      <c r="F46" s="3">
         <v>76600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>100100</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1910,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1733,23 +1945,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>179400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>173200</v>
+      </c>
+      <c r="F48" s="3">
         <v>178100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>169100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1762,23 +1980,29 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F49" s="3">
         <v>4600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +2015,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +2050,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,23 +2085,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,8 +2120,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,23 +2155,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>318800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>252300</v>
+      </c>
+      <c r="F54" s="3">
         <v>263200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>278000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,8 +2190,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2209,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,23 +2224,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F57" s="3">
         <v>16800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>24000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,22 +2255,28 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2020,23 +2290,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>55800</v>
+      </c>
+      <c r="F59" s="3">
         <v>66800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>71300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,23 +2325,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F60" s="3">
         <v>86300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>99200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2078,23 +2360,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>81700</v>
+      </c>
+      <c r="F61" s="3">
         <v>69800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>38500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2107,23 +2395,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>99700</v>
+      </c>
+      <c r="F62" s="3">
         <v>108600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>123900</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2136,8 +2430,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2465,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2500,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,23 +2535,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>255100</v>
+      </c>
+      <c r="F66" s="3">
         <v>263200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>261700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2570,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2589,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2620,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2655,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2690,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,23 +2725,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2410,8 +2760,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2795,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2830,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,23 +2865,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>96900</v>
       </c>
       <c r="E76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
         <v>16300</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,8 +2900,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,71 +2935,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44381</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44290</v>
+      </c>
+      <c r="F80" s="2">
         <v>44199</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44101</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>44010</v>
+      </c>
+      <c r="I80" s="2">
+        <v>43919</v>
+      </c>
+      <c r="J80" s="2">
         <v>43828</v>
       </c>
-      <c r="G80" s="2">
-        <v>43737</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-10400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,37 +3029,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J83" s="3">
         <v>4400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +3095,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +3130,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +3165,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +3200,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,37 +3235,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F89" s="3">
         <v>4500</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>52600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>50500</v>
+      </c>
+      <c r="J89" s="3">
         <v>6700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,37 +3289,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-20300</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3355,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3390,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-22500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3444,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3475,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3510,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3545,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,37 +3580,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F100" s="3">
         <v>7000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,33 +3650,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-11000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>29600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>SKYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E7" s="2">
         <v>44381</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44290</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44199</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44101</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44010</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43919</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43828</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E8" s="3">
         <v>41200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>30800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>36900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>30700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E9" s="3">
         <v>39400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>38900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>25700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>50600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>30500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-19800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,34 +926,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-6500</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>1400</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -944,8 +964,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50700</v>
+        <v>47100</v>
       </c>
       <c r="E17" s="3">
+        <v>57200</v>
+      </c>
+      <c r="F17" s="3">
         <v>49500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9500</v>
+        <v>-12100</v>
       </c>
       <c r="E18" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1085,174 +1119,189 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-11400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,69 +1575,75 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-6400</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E38" s="2">
         <v>44381</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44290</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44199</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44101</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44010</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43919</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43828</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E41" s="3">
         <v>64600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18400</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,26 +1866,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E43" s="3">
         <v>33400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>30000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,26 +1904,29 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E44" s="3">
         <v>29200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>31200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>27200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>23900</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1846,26 +1942,29 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>11100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E46" s="3">
         <v>130800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>70200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>76600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100100</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1951,26 +2056,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>184100</v>
+      </c>
+      <c r="E48" s="3">
         <v>179400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>173200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>178100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>169100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1995,17 +2106,17 @@
         <v>4000</v>
       </c>
       <c r="E49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,26 +2208,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E52" s="3">
         <v>4500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>271700</v>
+      </c>
+      <c r="E54" s="3">
         <v>318800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>252300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>263200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E57" s="3">
         <v>15900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>24000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2270,17 +2404,17 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,26 +2430,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E59" s="3">
         <v>50100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>71300</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E60" s="3">
         <v>67000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>86300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>99200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,26 +2506,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E61" s="3">
         <v>65300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>81700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>69800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2401,26 +2544,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E62" s="3">
         <v>91000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>99700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>123900</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E66" s="3">
         <v>221900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>255100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>263200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>261700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E76" s="3">
         <v>96900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
         <v>16300</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E80" s="2">
         <v>44381</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44290</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44199</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44101</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44010</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43919</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43828</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E83" s="3">
         <v>6900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4300</v>
       </c>
       <c r="I83" s="3">
         <v>4300</v>
       </c>
       <c r="J83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K83" s="3">
         <v>4400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>52600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>50500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E100" s="3">
         <v>90600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="E102" s="3">
         <v>60400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E7" s="2">
         <v>44472</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44381</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44290</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44199</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44101</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44010</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43919</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43828</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E8" s="3">
         <v>35000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>48100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>36900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E9" s="3">
         <v>36900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>39400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>38900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>25700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>50600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>30500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>20900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-19800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,13 +946,16 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -943,23 +963,23 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>1400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E17" s="3">
         <v>47100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>46800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>37600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-16000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,189 +1153,204 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>6400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-3900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-13000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,75 +1645,81 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>3900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E38" s="2">
         <v>44472</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44381</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44290</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44199</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44101</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44010</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43919</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43828</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18400</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,29 +1959,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E43" s="3">
         <v>35100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>26700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>30000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>46600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,29 +2000,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E44" s="3">
         <v>30900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>31200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>23900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,8 +2041,11 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1954,20 +2053,20 @@
         <v>3900</v>
       </c>
       <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>74400</v>
+      </c>
+      <c r="E46" s="3">
         <v>78300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>130800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>70200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>76600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100100</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,29 +2164,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E48" s="3">
         <v>184100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>173200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>178100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>169100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,29 +2205,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E49" s="3">
         <v>4000</v>
       </c>
       <c r="F49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G49" s="3">
         <v>4300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,29 +2328,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E52" s="3">
         <v>5200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E54" s="3">
         <v>271700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>318800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>252300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>263200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>12200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>24000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,29 +2526,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E59" s="3">
         <v>42000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>50100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E60" s="3">
         <v>55200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>67000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>86300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>99200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2649,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E61" s="3">
         <v>34600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>81700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>69800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,29 +2690,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97500</v>
+      </c>
+      <c r="E62" s="3">
         <v>96900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>99700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>108600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>123900</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E66" s="3">
         <v>185500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>221900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>255100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>263200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>261700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-27400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E76" s="3">
         <v>86200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
         <v>16300</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44563</v>
+      </c>
+      <c r="E80" s="2">
         <v>44472</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44381</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44290</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44199</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44101</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44010</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43919</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43828</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4300</v>
       </c>
       <c r="J83" s="3">
         <v>4300</v>
       </c>
       <c r="K83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L83" s="3">
         <v>4400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>52600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-32500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>90600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-56100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>60400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>29600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>25400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>SKYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,218 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F7" s="2">
         <v>44563</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44472</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44381</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44290</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44199</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44101</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44010</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43919</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43828</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F8" s="3">
         <v>38500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>35000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>41200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>48100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>39800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>33000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>36900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>30700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>55200</v>
+        <v>45300</v>
       </c>
       <c r="E9" s="3">
+        <v>49100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>41700</v>
+      </c>
+      <c r="G9" s="3">
         <v>36900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>39400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>38900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>36200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>25700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>50600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>30500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>20900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-16700</v>
+        <v>2100</v>
       </c>
       <c r="E10" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G10" s="3">
         <v>-1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>7300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-19800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>9800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="3">
         <v>2300</v>
       </c>
       <c r="F12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,21 +999,21 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>1400</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -984,14 +1023,20 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F17" s="3">
         <v>66200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>47100</v>
       </c>
-      <c r="F17" s="3">
-        <v>57200</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>50700</v>
+      </c>
+      <c r="I17" s="3">
         <v>49500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>46800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>32400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>33700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>37600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>29200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-27700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-16000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,201 +1223,231 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-20600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>4400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-28500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-4200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-26200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-13000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-11400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-7000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1648,78 +1787,90 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-6400</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-7000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-7000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F38" s="2">
         <v>44563</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44472</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44381</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44290</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44199</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44101</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44010</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43919</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43828</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>12900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>8500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>64600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>18400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2094,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,35 +2141,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>48400</v>
+      </c>
+      <c r="F43" s="3">
         <v>40100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>35100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>33400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>26700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>30000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>46600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,35 +2188,41 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F44" s="3">
         <v>17500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>30900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>29200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>31200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>27200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>23900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2044,35 +2235,41 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E46" s="3">
         <v>74400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>74400</v>
+      </c>
+      <c r="G46" s="3">
         <v>78300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>130800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>70200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>76600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100100</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2329,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,35 +2376,41 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>187500</v>
+      </c>
+      <c r="F48" s="3">
         <v>180500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>184100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>179400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>173200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>178100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>169100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,35 +2423,41 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F49" s="3">
         <v>3900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,35 +2564,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F52" s="3">
         <v>4800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>263600</v>
+        <v>276600</v>
       </c>
       <c r="E54" s="3">
         <v>271700</v>
       </c>
       <c r="F54" s="3">
+        <v>263600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>271700</v>
+      </c>
+      <c r="H54" s="3">
         <v>318800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>252300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>263200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>278000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2747,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>12200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>15900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>15800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>16800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>24000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,34 +2790,40 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2800</v>
       </c>
       <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K58" s="3">
+        <v>3900</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -2570,35 +2837,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>46600</v>
+      </c>
+      <c r="F59" s="3">
         <v>37900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>42000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>50100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>55800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>66800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>71300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2884,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>47800</v>
+        <v>64800</v>
       </c>
       <c r="E60" s="3">
         <v>55200</v>
       </c>
       <c r="F60" s="3">
+        <v>47800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>55200</v>
+      </c>
+      <c r="H60" s="3">
         <v>67000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>75500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>86300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>99200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,35 +2931,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>77300</v>
+      </c>
+      <c r="F61" s="3">
         <v>58400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>34600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>65300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>81700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>69800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>38500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>91700</v>
+      </c>
+      <c r="F62" s="3">
         <v>97500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>96900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>91000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>99700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>108600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>123900</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>238600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>223500</v>
+      </c>
+      <c r="F66" s="3">
         <v>202500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>185500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>221900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>255100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>263200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>261700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3420,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-71100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-54500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-27400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>8500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F76" s="3">
         <v>61100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>86200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>96900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>16300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44745</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44654</v>
+      </c>
+      <c r="F80" s="2">
         <v>44563</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44472</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44381</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44290</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44199</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44101</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44010</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43919</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43828</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-7000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3824,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>4300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4400</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-18400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-22400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-8400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-11400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>52600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>50500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>6700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,40 +4183,46 @@
         <v>-1000</v>
       </c>
       <c r="E91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-16900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-27100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-27000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-11400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F94" s="3">
         <v>600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-17200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-10800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F100" s="3">
         <v>22300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-32500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>90600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>10600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4657,14 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4169,36 +4672,42 @@
         <v>4500</v>
       </c>
       <c r="E102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-56100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>60400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-41200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>29600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>25400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E7" s="2">
         <v>44745</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44654</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44563</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44472</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44381</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44290</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44199</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44010</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43919</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43828</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E8" s="3">
         <v>47400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>48100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>38500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>35000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>36900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>30700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E9" s="3">
         <v>45300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>25700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>30500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-19800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,46 +1005,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>13400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-6500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>1400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E17" s="3">
         <v>58500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>63000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>66200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>47100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>49500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-14900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1235,172 +1269,184 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
       </c>
       <c r="F22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
       </c>
       <c r="L22" s="3">
         <v>1300</v>
       </c>
       <c r="M22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1408,46 +1454,49 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-13000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-13000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1799,78 +1869,84 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>3900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-13000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-13000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E38" s="2">
         <v>44745</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44654</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44563</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44472</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44381</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44290</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44199</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44101</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44010</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43919</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43828</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E41" s="3">
         <v>11000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>18400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,38 +2237,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E43" s="3">
         <v>50700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>40100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>26700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>30000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,38 +2287,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E44" s="3">
         <v>11900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>17500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>30900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>31200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2250,29 +2349,29 @@
         <v>6100</v>
       </c>
       <c r="E45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F45" s="3">
         <v>6400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>3900</v>
       </c>
       <c r="G45" s="3">
         <v>3900</v>
       </c>
       <c r="H45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E46" s="3">
         <v>79600</v>
-      </c>
-      <c r="E46" s="3">
-        <v>74400</v>
       </c>
       <c r="F46" s="3">
         <v>74400</v>
       </c>
       <c r="G46" s="3">
+        <v>74400</v>
+      </c>
+      <c r="H46" s="3">
         <v>78300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>130800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>70200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>76600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100100</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E48" s="3">
         <v>187300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>187500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>184100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>173200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>178100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>169100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E49" s="3">
         <v>6600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4000</v>
       </c>
       <c r="H49" s="3">
         <v>4000</v>
       </c>
       <c r="I49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J49" s="3">
         <v>4300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,38 +2687,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>270900</v>
+      </c>
+      <c r="E54" s="3">
         <v>276600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>263600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>318800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>252300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>263200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>278000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E57" s="3">
         <v>13800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,38 +2927,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1000</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E59" s="3">
         <v>48600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>37900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>42000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>55800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>66800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E60" s="3">
         <v>64800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>67000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>86300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>99200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,38 +3077,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E61" s="3">
         <v>77200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>77300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>58400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>34600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>65300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>81700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>69800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E62" s="3">
         <v>97100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>97500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>96900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>91000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>99700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>123900</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E66" s="3">
         <v>238600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>223500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>202500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>185500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>221900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>255100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>263200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>261700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-71100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-54500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-27400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E76" s="3">
         <v>38000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>48200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>61100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>16300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44836</v>
+      </c>
+      <c r="E80" s="2">
         <v>44745</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44654</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44563</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44472</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44381</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44290</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44199</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44101</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44010</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43919</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43828</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-13000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4300</v>
       </c>
       <c r="M83" s="3">
         <v>4300</v>
       </c>
       <c r="N83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O83" s="3">
         <v>4400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>52600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-22500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>8700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>90600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>4500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>60400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>25400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>SKYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,256 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44927</v>
+      </c>
+      <c r="F7" s="2">
         <v>44836</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44745</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44654</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44563</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44472</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44381</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44290</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44199</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44101</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44010</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43919</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43828</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>65100</v>
+      </c>
+      <c r="F8" s="3">
         <v>52300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>47400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>48100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>38500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>35000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>41200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>48100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>39800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>33000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>30800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>36900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>30700</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>48500</v>
+      </c>
+      <c r="F9" s="3">
         <v>44000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>45300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>49100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>41700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>36900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>39400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>38900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>36200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>25700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>50600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>30500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>20900</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F10" s="3">
         <v>8300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-1000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>9200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>7300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-19800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>6400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +933,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>2400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1200</v>
       </c>
       <c r="H12" s="3">
         <v>2300</v>
       </c>
       <c r="I12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,41 +1041,47 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>1100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>13400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1052,14 +1091,20 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1153,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1176,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F17" s="3">
         <v>57400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>58500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>63000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>66200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>47100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>50700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>49500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>46800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>32400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>33700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>37600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>29200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-14900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-27700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-12100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1310,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1272,231 +1339,261 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>4400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-15900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-28500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-10500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-6800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>900</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-4200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1642,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-26200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-13000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-6200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-13000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-16600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-27000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-13900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1810,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1978,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1872,81 +2011,93 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-13000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-16600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-27000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-13900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-13000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-16600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-27000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-13900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44927</v>
+      </c>
+      <c r="F38" s="2">
         <v>44836</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44745</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44654</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44563</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44472</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44381</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44290</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44199</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44101</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44010</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43919</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43828</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2311,46 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F41" s="3">
         <v>9300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>64600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>7400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>18400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2363,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,44 +2419,50 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F43" s="3">
         <v>49800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>50700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>48400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>40100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>35100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>33400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>26700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>30000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>46600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,44 +2475,50 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F44" s="3">
         <v>12200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>11900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>17500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>30900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>29200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>31200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>27200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>23900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,44 +2531,50 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F45" s="3">
         <v>6100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>6400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>11100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,44 +2587,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>116600</v>
+      </c>
+      <c r="F46" s="3">
         <v>77400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>79600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>74400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>74400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>78300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>130800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>70200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>76600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100100</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2643,14 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,44 +2699,50 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>175500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>180100</v>
+      </c>
+      <c r="F48" s="3">
         <v>183800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>187300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>187500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>180500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>184100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>179400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>173200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>178100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>169100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,44 +2755,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F49" s="3">
         <v>6100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2811,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,44 +2923,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F52" s="3">
         <v>3600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>4200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>5200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2979,14 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +3035,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>292800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>305800</v>
+      </c>
+      <c r="F54" s="3">
         <v>270900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>276600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>271700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>263600</v>
       </c>
       <c r="H54" s="3">
         <v>271700</v>
       </c>
       <c r="I54" s="3">
+        <v>263600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>271700</v>
+      </c>
+      <c r="K54" s="3">
         <v>318800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>252300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>263200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>278000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +3091,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3139,46 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F57" s="3">
         <v>19100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>13800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>7600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>15900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>15800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>16800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>24000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,43 +3191,49 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>58500</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2800</v>
       </c>
       <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N58" s="3">
+        <v>3900</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2980,44 +3247,50 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F59" s="3">
         <v>51900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>48600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>46600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>37900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>42000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>50100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>55800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>66800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>71300</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,44 +3303,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>122600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>132200</v>
+      </c>
+      <c r="F60" s="3">
         <v>73000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>64800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>55200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>47800</v>
       </c>
       <c r="H60" s="3">
         <v>55200</v>
       </c>
       <c r="I60" s="3">
+        <v>47800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K60" s="3">
         <v>67000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>75500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>86300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>99200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,44 +3359,50 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F61" s="3">
         <v>82100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>77200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>77300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>58400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>34600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>65300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>81700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>69800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>38500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,44 +3415,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>75200</v>
+      </c>
+      <c r="F62" s="3">
         <v>79800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>97100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>91700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>97500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>96900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>91000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>99700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>108600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>123900</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3471,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3639,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>236300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>252100</v>
+      </c>
+      <c r="F66" s="3">
         <v>234500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>238600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>223500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>202500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>185500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>221900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>255100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>263200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>261700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3695,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3941,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-91000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-84100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-71100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-54500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-27400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3997,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +4165,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>53700</v>
+      </c>
+      <c r="F76" s="3">
         <v>36500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>38000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>48200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>61100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>86200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>96900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>16300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4221,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45018</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44927</v>
+      </c>
+      <c r="F80" s="2">
         <v>44836</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44745</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44654</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44563</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44472</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44381</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44290</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44199</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44101</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44010</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43919</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43828</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-13000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-16600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-27000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-13900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4420,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>6900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>6500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>4300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>4300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>4400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4752,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F89" s="3">
         <v>7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-10800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-18400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-22400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-11400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>52600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>50500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>6700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4834,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-4400</v>
       </c>
       <c r="G91" s="3">
         <v>-1000</v>
       </c>
       <c r="H91" s="3">
-        <v>-16900</v>
+        <v>-4800</v>
       </c>
       <c r="I91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-27100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-27000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4998,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-22500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-26000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5300,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>34700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>8700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>9100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>22300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-32500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>90600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-14200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5412,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1700</v>
-      </c>
-      <c r="E102" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-6500</v>
       </c>
       <c r="G102" s="3">
         <v>4500</v>
       </c>
       <c r="H102" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-56100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>60400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-41200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>29600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>25400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>SKYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E7" s="2">
         <v>45018</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44927</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44836</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44745</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44654</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44563</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44472</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44381</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44290</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44199</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44101</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44010</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43919</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43828</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E8" s="3">
         <v>66100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>65100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>47400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>48100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>38500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>48100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>33000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>30800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>36900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E9" s="3">
         <v>49600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>48500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>44000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>25700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>30500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E10" s="3">
         <v>16500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>8300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-19800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9800</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,55 +1064,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>13400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-6500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E17" s="3">
         <v>67200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>64900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>57400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>58500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>63000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>66200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>47100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>49500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>46800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>33700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>37600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29200</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-11100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-12100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1345,199 +1379,211 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E21" s="3">
         <v>6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
       </c>
       <c r="I22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1300</v>
       </c>
       <c r="O22" s="3">
         <v>1300</v>
       </c>
       <c r="P22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,55 +1591,58 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-13000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2017,87 +2087,93 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-13000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-12300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-13000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-12300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E38" s="2">
         <v>45018</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44927</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44836</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44745</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44654</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44563</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44472</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44381</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44290</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44199</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44101</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44010</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43919</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43828</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E41" s="3">
         <v>13800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18400</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,47 +2515,50 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>77200</v>
+      </c>
+      <c r="E43" s="3">
         <v>67200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>62800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>49800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>50700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>26700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>46600</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,47 +2574,50 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E44" s="3">
         <v>14400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>17500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>30900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>27200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>23900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,47 +2633,50 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E45" s="3">
         <v>12500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>6100</v>
       </c>
       <c r="G45" s="3">
         <v>6100</v>
       </c>
       <c r="H45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I45" s="3">
         <v>6400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3900</v>
       </c>
       <c r="J45" s="3">
         <v>3900</v>
       </c>
       <c r="K45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E46" s="3">
         <v>107800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>116600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>77400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>79600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>74400</v>
       </c>
       <c r="I46" s="3">
         <v>74400</v>
       </c>
       <c r="J46" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K46" s="3">
         <v>78300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>130800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>70200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>76600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>100100</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,47 +2810,50 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>169700</v>
+      </c>
+      <c r="E48" s="3">
         <v>175500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>180100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>183800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>187300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>187500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>180500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>184100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>179400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>173200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>178100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>169100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,47 +2869,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E49" s="3">
         <v>5300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4000</v>
       </c>
       <c r="K49" s="3">
         <v>4000</v>
       </c>
       <c r="L49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M49" s="3">
         <v>4300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,47 +3046,50 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
         <v>4200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>298700</v>
+      </c>
+      <c r="E54" s="3">
         <v>292800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>305800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>270900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>263600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>318800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>252300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>263200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>278000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,47 +3271,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E57" s="3">
         <v>13900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>21100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>13800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,47 +3328,50 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E58" s="3">
         <v>54800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>58500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1000</v>
       </c>
       <c r="K58" s="3">
         <v>1000</v>
       </c>
       <c r="L58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,47 +3387,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E59" s="3">
         <v>53800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>48600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>37900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>42000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>66800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71300</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,47 +3446,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E60" s="3">
         <v>122600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>132200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>64800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>47800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>75500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>86300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>99200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,47 +3505,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E61" s="3">
         <v>45000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>44400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>82100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>77200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>77300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>58400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>34600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>65300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>69800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,47 +3564,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E62" s="3">
         <v>67800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>75200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>79800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>91700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>97500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>91000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>99700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>108600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>123900</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3800,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>239400</v>
+      </c>
+      <c r="E66" s="3">
         <v>236300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>252100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>234500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>238600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>223500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>202500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>185500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>221900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>255100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>263200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>261700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-98700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-94100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-84100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-71100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-27400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E76" s="3">
         <v>56500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>36500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>48200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>61100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>86200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>16300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45109</v>
+      </c>
+      <c r="E80" s="2">
         <v>45018</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44927</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44836</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44745</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44654</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44563</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44472</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44381</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44290</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44199</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44101</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44010</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43919</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43828</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-13000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-12300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4500</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4300</v>
       </c>
       <c r="P83" s="3">
         <v>4300</v>
       </c>
       <c r="Q83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R83" s="3">
         <v>4400</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>52600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>50500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-17300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>22300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-32500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>90600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>29600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKYT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>SKYT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E7" s="2">
         <v>45109</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45018</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44927</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44836</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44745</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44654</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44563</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44472</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44381</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44290</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44199</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44010</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43919</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43828</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E8" s="3">
         <v>69800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>65100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>47400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>48100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>38500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>48100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>39800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>33000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>36900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>30700</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E9" s="3">
         <v>53100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>49600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>48500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>44000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>25700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>30500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E10" s="3">
         <v>16700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>16500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>16600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9800</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,47 +1098,47 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>13400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-6500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>75800</v>
+      </c>
+      <c r="E17" s="3">
         <v>73400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>67200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>64900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>57400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>58500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>63000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>47100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>49500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>46800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>33700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>37600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29200</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1382,267 +1416,282 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>3700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-8500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
       </c>
       <c r="J22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1300</v>
       </c>
       <c r="P22" s="3">
         <v>1300</v>
       </c>
       <c r="Q22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1700</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-6800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-700</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-13000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2090,90 +2160,96 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E38" s="2">
         <v>45109</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44927</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44836</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44745</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44654</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44563</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44472</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44381</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44290</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44199</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44101</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44010</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43919</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43828</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E41" s="3">
         <v>16200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>18400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,50 +2608,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>81300</v>
+      </c>
+      <c r="E43" s="3">
         <v>77200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>62800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>50700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>26700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>46600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,50 +2670,53 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E44" s="3">
         <v>16000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>14400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>13400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>12200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>13100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>30900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>27200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E45" s="3">
         <v>9100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6100</v>
       </c>
       <c r="H45" s="3">
         <v>6100</v>
       </c>
       <c r="I45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="J45" s="3">
         <v>6400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3900</v>
       </c>
       <c r="K45" s="3">
         <v>3900</v>
       </c>
       <c r="L45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E46" s="3">
         <v>118500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>107800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>116600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>77400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>79600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>74400</v>
       </c>
       <c r="J46" s="3">
         <v>74400</v>
       </c>
       <c r="K46" s="3">
+        <v>74400</v>
+      </c>
+      <c r="L46" s="3">
         <v>78300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>130800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>70200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>76600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>100100</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E48" s="3">
         <v>169700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>175500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>180100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>187300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>187500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>180500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>184100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>179400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>173200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>178100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>169100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,50 +2980,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E49" s="3">
         <v>5200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>4000</v>
       </c>
       <c r="L49" s="3">
         <v>4000</v>
       </c>
       <c r="M49" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N49" s="3">
         <v>4300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,50 +3166,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>299700</v>
+      </c>
+      <c r="E54" s="3">
         <v>298700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>292800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>305800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>270900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>263600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>318800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>252300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>263200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>278000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E57" s="3">
         <v>14200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>21100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>19100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>13800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>15900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>15800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,50 +3462,53 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E58" s="3">
         <v>56800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>54800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>58500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1000</v>
       </c>
       <c r="L58" s="3">
         <v>1000</v>
       </c>
       <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E59" s="3">
         <v>59400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>53800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>48600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>37900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>55800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>66800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>71300</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E60" s="3">
         <v>130400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>122600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>132200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>64800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>47800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>75500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>86300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>99200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,50 +3648,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E61" s="3">
         <v>44300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>44400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>82100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>77200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>77300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>58400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>34600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>65300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>69800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E62" s="3">
         <v>61100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>67800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>75200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>79800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>97100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>91700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>97500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>91000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>99700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>108600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>123900</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>236800</v>
+      </c>
+      <c r="E66" s="3">
         <v>239400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>236300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>252100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>234500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>238600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>223500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>202500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>185500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>221900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>255100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>263200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>261700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-114900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-98700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-94100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-71100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-27400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E76" s="3">
         <v>59300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>56500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>53700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>36500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>48200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>61100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>86200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
         <v>16300</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45200</v>
+      </c>
+      <c r="E80" s="2">
         <v>45109</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45018</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44927</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44836</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44745</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44654</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44563</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44472</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44381</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44290</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44199</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44101</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44010</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43919</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43828</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>4300</v>
       </c>
       <c r="Q83" s="3">
         <v>4300</v>
       </c>
       <c r="R83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S83" s="3">
         <v>4400</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>52600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>50500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>9400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>22300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-32500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>90600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-56100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>60400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-41200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>29600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>25400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
